--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value543.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value543.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9434700933189462</v>
+        <v>1.402708292007446</v>
       </c>
       <c r="B1">
-        <v>0.9347867110331228</v>
+        <v>1.784400582313538</v>
       </c>
       <c r="C1">
-        <v>0.9858548451425896</v>
+        <v>1.985599756240845</v>
       </c>
       <c r="D1">
-        <v>1.358635072250456</v>
+        <v>2.279743194580078</v>
       </c>
       <c r="E1">
-        <v>2.48952927242448</v>
+        <v>2.77721095085144</v>
       </c>
     </row>
   </sheetData>
